--- a/data/income_statement/3digits/total/381_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/381_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>381-Waste collection</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>381-Waste collection</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1501698.01072</v>
@@ -962,31 +868,36 @@
         <v>2718419.58193</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>2841620.29551</v>
+        <v>2861559.88495</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>3425426.11626</v>
+        <v>3459531.05458</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>4402308.60615</v>
+        <v>4446834.11952</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>5379986.66574</v>
+        <v>5399527.24567</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>7214555.726790001</v>
+        <v>7214555.72679</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>7258387.38704</v>
+        <v>7270986.56324</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>6676354.73233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>6739067.110470001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>7900227.85</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1443785.03632</v>
@@ -1001,70 +912,80 @@
         <v>2619228.14448</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2769908.94057</v>
+        <v>2789848.04948</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3329496.50297</v>
+        <v>3349789.43862</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4278260.77383</v>
+        <v>4318391.187639999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>5185270.57352</v>
+        <v>5203418.751069999</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>6993913.367020001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>6960791.53972</v>
+        <v>6973383.937360001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>6351711.56623</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>6414173.99822</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>7548419.455</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>30319.41751</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>9653.03134</v>
+        <v>9653.031339999998</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>44831.82953</v>
+        <v>44831.82953000001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>39971.75512</v>
+        <v>39971.75511999999</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>12508.24415</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>17148.74565</v>
+        <v>30929.31857</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>33937.51721</v>
+        <v>36099.786</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>64964.70717</v>
+        <v>64976.27117000001</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>69581.55468</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>130271.32669</v>
+        <v>130273.80421</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>145289.95925</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>145448.93005</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>213486.945</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>27593.55689</v>
@@ -1079,31 +1000,36 @@
         <v>59219.68233</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>59203.11079000001</v>
+        <v>59203.59131999999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>78780.86764</v>
+        <v>78812.29739000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>90110.31511</v>
+        <v>92343.14588</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>129751.38505</v>
+        <v>131132.22343</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>151060.80509</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>167324.52063</v>
+        <v>167328.82167</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>179353.20685</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>179444.1822</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>138321.45</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>2988.34605</v>
@@ -1118,7 +1044,7 @@
         <v>4230.717320000001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>7367.571539999999</v>
+        <v>7367.571540000001</v>
       </c>
       <c r="H9" s="47" t="n">
         <v>11676.32458</v>
@@ -1127,22 +1053,27 @@
         <v>13029.97095</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>20972.72699</v>
+        <v>21125.4533</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>27792.84022</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>39041.64843</v>
+        <v>39042.69043</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>35912.4412</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>35988.65005</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>84540.708</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>1751.77905</v>
@@ -1166,28 +1097,33 @@
         <v>6432.84849</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>12857.76589</v>
+        <v>12919.01229</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>9377.417099999999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>22742.63578</v>
+        <v>22743.67778</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>20265.83287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>20342.04172</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>72695.848</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1155.74401</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>642.74116</v>
+        <v>642.7411599999999</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>147.3854</v>
@@ -1199,13 +1135,13 @@
         <v>2427.20603</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>5664.29049</v>
+        <v>5664.290489999999</v>
       </c>
       <c r="I11" s="48" t="n">
         <v>5230.72741</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>5211.49709</v>
+        <v>5302.977000000001</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>13178.59683</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>13317.91198</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>11098.585</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>80.82299</v>
@@ -1229,7 +1170,7 @@
         <v>1570.59839</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>662.6852099999999</v>
+        <v>662.68521</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>208.69835</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>2328.69635</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>746.275</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1498709.66467</v>
@@ -1274,31 +1220,36 @@
         <v>2714188.86461</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2834252.72397</v>
+        <v>2854192.31341</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>3413749.79168</v>
+        <v>3447854.73</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4389278.635199999</v>
+        <v>4433804.148569999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>5359013.93875</v>
+        <v>5378401.792370001</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>7186762.886570001</v>
+        <v>7186762.88657</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>7219345.738609999</v>
+        <v>7231943.87281</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>6640442.291129999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>6703078.46042</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>7815687.142</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1270795.86678</v>
@@ -1313,31 +1264,36 @@
         <v>2343721.36991</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2509491.06604</v>
+        <v>2542086.70249</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3057459.49705</v>
+        <v>3101196.98865</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4021843.80811</v>
+        <v>4076833.34758</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>4932042.86787</v>
+        <v>4947422.672610001</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>6454110.44199</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>6150018.52101</v>
+        <v>6159558.99002</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>5779306.58316</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5829570.15681</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>6698699.453</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>107770.40602</v>
@@ -1355,28 +1311,33 @@
         <v>235744.68956</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>291684.95012</v>
+        <v>302564.00868</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>485929.53251</v>
+        <v>485959.85818</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>489480.23938</v>
+        <v>492830.8446</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>610137.83163</v>
+        <v>610137.8316300001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>760950.34332</v>
+        <v>760950.3433200001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>811763.8496600001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>813773.33589</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>804927.723</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>99903.80281000001</v>
@@ -1391,31 +1352,36 @@
         <v>235556.6648</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>236258.94911</v>
+        <v>236650.85111</v>
       </c>
       <c r="H16" s="48" t="n">
         <v>357472.87667</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>340710.41561</v>
+        <v>342081.78744</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>714308.8021600001</v>
+        <v>719003.93583</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1206299.93588</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1479203.00304</v>
+        <v>1485674.22905</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1122826.74857</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1141323.83265</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1946862.242</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1051146.32136</v>
@@ -1430,31 +1396,36 @@
         <v>1908434.90651</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2035197.03561</v>
+        <v>2067400.77006</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2382286.01185</v>
+        <v>2415019.80991</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3173081.94802</v>
+        <v>3226192.93166</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3703399.76624</v>
+        <v>3710733.83209</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>4614769.550989999</v>
+        <v>4614769.55099</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>3855780.74429</v>
+        <v>3858849.98729</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>3807399.41995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3837156.42329</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3724189.748</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>11975.33659</v>
@@ -1472,10 +1443,10 @@
         <v>2290.39176</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>26015.65841</v>
+        <v>26140.29339</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>22121.91197</v>
+        <v>22598.7703</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>24854.06009</v>
@@ -1484,16 +1455,21 @@
         <v>22903.12349</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>54084.43036</v>
+        <v>54084.43036000001</v>
       </c>
       <c r="M18" s="48" t="n">
         <v>37316.56498</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>222719.74</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>227913.79789</v>
@@ -1502,37 +1478,42 @@
         <v>214400.76708</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>282043.0704199999</v>
+        <v>282043.07042</v>
       </c>
       <c r="F19" s="47" t="n">
         <v>370467.4947</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>324761.65793</v>
+        <v>312105.6109199999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>356290.29463</v>
+        <v>346657.74135</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>367434.82709</v>
+        <v>356970.80099</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>426971.07088</v>
+        <v>430979.11976</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>732652.44458</v>
+        <v>732652.4445799999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1069327.2176</v>
+        <v>1072384.88279</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>861135.70797</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>873508.3036100001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1116987.689</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>110113.08527</v>
@@ -1547,31 +1528,36 @@
         <v>213276.11122</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>248164.42656</v>
+        <v>250177.27847</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>278023.77469</v>
+        <v>281307.29781</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>300387.57603</v>
+        <v>305691.90852</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>340173.6991799999</v>
+        <v>341472.89104</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>440546.99584</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>544199.4619400001</v>
+        <v>545550.63187</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>611241.651</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>620623.63987</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>642611.352</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>292.43943</v>
@@ -1580,7 +1566,7 @@
         <v>148.17447</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>462.4718400000001</v>
+        <v>462.47184</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>2724.61871</v>
@@ -1598,19 +1584,24 @@
         <v>181.84781</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>468.6658200000001</v>
+        <v>468.66582</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>3293.2319</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>3384.70824</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3392.41559</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>1462.865</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>8765.129449999999</v>
@@ -1628,28 +1619,33 @@
         <v>36876.53592</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>31369.01415</v>
+        <v>31839.23239</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>30846.96165</v>
+        <v>31314.47892</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>37481.15545000001</v>
+        <v>37802.25186</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>60928.57906</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>111259.47959</v>
+        <v>111297.93335</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>122946.92432</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>124450.31724</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>93433.355</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>101055.51639</v>
@@ -1664,31 +1660,36 @@
         <v>176227.98577</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>210046.99838</v>
+        <v>212059.85029</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>246188.82118</v>
+        <v>249002.12606</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>269254.16307</v>
+        <v>274090.9782899999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>302510.69592</v>
+        <v>303488.79137</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>379149.75096</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>429646.7504499999</v>
+        <v>430959.46662</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>484910.0184400001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>492780.90704</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>547715.132</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>117800.71262</v>
@@ -1703,31 +1704,36 @@
         <v>157191.38348</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>76597.23137000001</v>
+        <v>61928.33245</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>78266.51994</v>
+        <v>65350.44354</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>67047.25106</v>
+        <v>51278.89247</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>86797.37170000002</v>
+        <v>89506.22872</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>292105.44874</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>525127.75566</v>
+        <v>526834.25092</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>249894.05697</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>252884.66374</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>474376.337</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>25237.30114</v>
@@ -1736,43 +1742,48 @@
         <v>40381.41611999999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>54663.31454000001</v>
+        <v>54663.31454</v>
       </c>
       <c r="F25" s="47" t="n">
         <v>72070.12544</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>92617.27925000001</v>
+        <v>93560.49218</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>107487.31103</v>
+        <v>109867.25945</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>167698.92874</v>
+        <v>172933.27132</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>159230.41297</v>
+        <v>159084.33638</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>227599.68866</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>342650.26861</v>
+        <v>342812.46431</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>242253.4687</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>242809.18899</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>329215.086</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>2181.58095</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>5365.16124</v>
+        <v>5365.161239999999</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>15430.98179</v>
@@ -1781,7 +1792,7 @@
         <v>9415.531230000001</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>8575.021299999999</v>
+        <v>8575.0213</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>4833.333900000001</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>22203.51228</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>59239.228</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1817,7 +1833,7 @@
         <v>3655.33422</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>9297.466450000002</v>
+        <v>9297.46645</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>5987.10167</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>10840.83522</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>2890.809</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>4850.299349999999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>3968.163010000001</v>
+        <v>3968.16301</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>6651.55231</v>
+        <v>6651.552310000001</v>
       </c>
       <c r="F28" s="48" t="n">
         <v>10094.67503</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>10913.6626</v>
+        <v>11040.9656</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>14942.67087</v>
+        <v>15069.97387</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>36042.72328</v>
+        <v>39601.21347000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>51068.23691000001</v>
+        <v>51579.34617999999</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>60268.71909999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>50837.52581</v>
+        <v>50999.72151</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>42167.4363</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>42191.18808</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>42150.188</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1.91435</v>
@@ -1904,7 +1930,7 @@
         <v>112.65136</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>266.40134</v>
+        <v>266.4037</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>158.91849</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>59.08445</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>342.752</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>3347.06058</v>
@@ -1931,7 +1962,7 @@
         <v>10573.31161</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>8042.375399999999</v>
+        <v>8042.375400000001</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>9894.324640000001</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>28254.1744</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>14348.622</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>193.44508</v>
@@ -1991,16 +2027,21 @@
         <v>1024.82777</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>327.85975</v>
+        <v>327.8597500000001</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>325.41974</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>1211.151</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>3713.96224</v>
@@ -2009,7 +2050,7 @@
         <v>8434.26194</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>8574.31546</v>
+        <v>8574.315460000002</v>
       </c>
       <c r="F32" s="48" t="n">
         <v>11099.89684</v>
@@ -2018,13 +2059,13 @@
         <v>27355.49116</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>22171.1164</v>
+        <v>23600.09714</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>47399.876</v>
+        <v>47763.08708999999</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>49475.10344000001</v>
+        <v>49478.92729</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>67953.22081999999</v>
@@ -2033,13 +2074,18 @@
         <v>158684.62102</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>88039.54014</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>88580.63797999998</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>118606.72</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>402.15353</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>38.169</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>10949.03859</v>
@@ -2132,31 +2188,36 @@
         <v>21519.97247</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>29185.04867</v>
+        <v>30000.9586</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>43623.92894999999</v>
+        <v>44447.59363</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>49659.27870999999</v>
+        <v>50971.91765</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>23255.59695</v>
+        <v>22594.58724</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>39475.01643</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>45733.84390000001</v>
+        <v>45733.84389999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>49961.31264</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>49952.18330999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>90387.447</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>20303.39981</v>
@@ -2165,37 +2226,42 @@
         <v>16460.48116</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>45175.30673</v>
+        <v>45175.30672999999</v>
       </c>
       <c r="F36" s="47" t="n">
         <v>31044.9193</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>43366.04012</v>
+        <v>43366.04012000001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>64574.32368</v>
+        <v>65170.92569999999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>84874.06154999998</v>
+        <v>85482.97597</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>73961.10412</v>
+        <v>73970.11747999999</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>104448.67428</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>286673.97406</v>
+        <v>286673.9740599999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>196714.01493</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>197201.85745</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>221181.199</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>45.68837000000001</v>
@@ -2216,7 +2282,7 @@
         <v>100.01104</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>62.99744</v>
+        <v>64.92172000000001</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>40.41816</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>149.13444</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>167.863</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>9420.148740000001</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>36091.61217</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>24739.683</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0.38063</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>11255</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>688.899</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>4361.39533</v>
@@ -2330,13 +2411,13 @@
         <v>32162.48221</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>17481.69662</v>
+        <v>18077.49481</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>41787.51586000001</v>
+        <v>42393.37657</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>56708.5706</v>
+        <v>56717.37939</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>80098.97706</v>
@@ -2345,13 +2426,18 @@
         <v>222953.9827</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>111932.69258</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>112420.53508</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>166684.337</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>311.91124</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>391.00977</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>11.006</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,14 +2516,19 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>6163.875499999999</v>
+        <v>6163.8755</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>2787.83514</v>
@@ -2441,19 +2537,19 @@
         <v>15212.43623</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>4116.32497</v>
+        <v>4116.324970000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>7189.546910000001</v>
+        <v>7189.54691</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>24394.49448</v>
+        <v>24395.29831</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>26605.67527</v>
+        <v>26606.8047</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>13319.2585</v>
+        <v>13319.46307</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>22394.38239</v>
@@ -2462,13 +2558,18 @@
         <v>25827.26588</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>36894.56597</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>36894.56599</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>28889.411</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>55548.06216</v>
@@ -2480,37 +2581,42 @@
         <v>36321.66191</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>56244.35599999999</v>
+        <v>56244.356</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>62073.29219</v>
+        <v>62337.81739</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>76658.66584</v>
+        <v>77203.31218000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>126119.37675</v>
+        <v>126258.63137</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>165666.17573</v>
+        <v>166201.19408</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>208265.93093</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>299351.91418</v>
+        <v>299356.25826</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>291433.68726</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>291626.22336</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>196485.997</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>47444.14592000001</v>
+        <v>47444.14592</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>36301.61492</v>
@@ -2519,34 +2625,39 @@
         <v>31478.12345</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>50110.56286999999</v>
+        <v>50110.56287</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>44105.69873</v>
+        <v>44370.22393</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>70991.30388999998</v>
+        <v>71535.95023</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>110883.52101</v>
+        <v>111022.77563</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>139919.43589</v>
+        <v>140449.70747</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>182328.88614</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>242765.55855</v>
+        <v>242769.90263</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>236660.714</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>236757.12727</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>165865.766</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>8103.91624</v>
@@ -2570,7 +2681,7 @@
         <v>15235.85574</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>25746.73984</v>
+        <v>25751.48661</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>25937.04479</v>
@@ -2579,13 +2690,18 @@
         <v>56586.35563000001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>54772.97326000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>54869.09609000001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>30620.231</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>67186.55179</v>
@@ -2594,37 +2710,42 @@
         <v>62172.49801</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>81213.09295999999</v>
+        <v>81213.09296000001</v>
       </c>
       <c r="F47" s="47" t="n">
         <v>141972.23362</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>63775.17831</v>
+        <v>49784.96711999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>44520.84145</v>
+        <v>32843.46511</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>23752.7415</v>
+        <v>12470.55645</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>6400.50482</v>
+        <v>8419.253540000002</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>206990.53219</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>281752.13603</v>
+        <v>283616.48291</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>3999.82348</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>6865.77192</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>385924.227</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>12587.32314</v>
@@ -2633,37 +2754,42 @@
         <v>30319.0423</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>35850.06273000001</v>
+        <v>35850.06273</v>
       </c>
       <c r="F48" s="47" t="n">
         <v>33925.26281</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>33899.74686</v>
+        <v>60719.27609000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>57277.77763</v>
+        <v>84365.66949</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>55561.42529000001</v>
+        <v>56764.0523</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>63380.80986</v>
+        <v>63518.57670000001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>91381.30536</v>
+        <v>91381.30535999998</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>69824.28068000001</v>
+        <v>69824.38167999999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>117736.67472</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>117943.30543</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>111777.975</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>1007.1431</v>
@@ -2678,13 +2804,13 @@
         <v>4385.311890000001</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>749.2018499999999</v>
+        <v>27568.73108</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1148.0408</v>
+        <v>27967.57003</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>6364.17806</v>
+        <v>6364.178059999999</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>8026.29147</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>3764.07163</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>6490.995</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>11580.18004</v>
@@ -2714,34 +2845,39 @@
         <v>33902.26175</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>29539.95092000001</v>
+        <v>29539.95092</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>33150.54500999999</v>
+        <v>33150.54501</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>56129.73683</v>
+        <v>56398.09946</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>49197.24723</v>
+        <v>50399.87424</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>55354.51839</v>
+        <v>55492.28522999999</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>90998.41025</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>65276.24915</v>
+        <v>65276.35015000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>113972.60309</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>114179.2338</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>105286.98</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>14984.71292</v>
@@ -2756,31 +2892,36 @@
         <v>22723.16492</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>33153.17429</v>
+        <v>33162.86549</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>53691.43128</v>
+        <v>53922.26637</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>37912.10931</v>
+        <v>38174.5648</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>66808.13837</v>
+        <v>67316.03322999999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>34499.54002</v>
+        <v>34499.54001999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>149781.03943</v>
+        <v>149783.08133</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>97939.45785000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>98427.78997</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>91926.103</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>1.26085</v>
@@ -2801,7 +2942,7 @@
         <v>394.66222</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>3608.64481</v>
+        <v>3663.25982</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>1964.24499</v>
@@ -2815,17 +2956,22 @@
       <c r="M52" s="48" t="n">
         <v>8376.96884</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>6557.835</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>2780.17103</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>6872.702460000001</v>
+        <v>6872.70246</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>1628.74952</v>
@@ -2834,13 +2980,13 @@
         <v>1351.67314</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1448.60457</v>
+        <v>1458.29577</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>11239.84373</v>
+        <v>11249.53493</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1712.7802</v>
+        <v>1712.89607</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>10532.12152</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>10170.02809</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>5040.65</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>12203.28104</v>
@@ -2876,34 +3027,39 @@
         <v>30156.79218</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>42056.92533</v>
+        <v>42278.06922</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>32590.6843</v>
+        <v>32798.40891</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>54311.77186000001</v>
+        <v>54819.66672</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>32682.84332</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>130931.46766</v>
+        <v>130933.50956</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>79392.46092</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>79880.79303999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>80327.618</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>64789.16201</v>
+        <v>64789.16201000001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>69903.27655999998</v>
+        <v>69903.27656</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>-16972.92369</v>
@@ -2912,31 +3068,36 @@
         <v>153174.33151</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>64521.75087999999</v>
+        <v>77341.37772</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>48107.18780000001</v>
+        <v>63286.86823</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>41402.05748</v>
+        <v>31060.04395</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>2973.176310000001</v>
+        <v>4621.797009999997</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>263872.29753</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>201795.37728</v>
+        <v>203657.78326</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>23797.04035</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>26381.28738</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>405776.099</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>18762.41411</v>
@@ -2951,31 +3112,36 @@
         <v>41924.33228</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>33829.98936</v>
+        <v>33832.03294999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>30121.56654</v>
+        <v>30380.95674</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>32847.35481</v>
+        <v>32850.23912</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>37957.75748000001</v>
+        <v>37970.72233</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>77151.0502</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>101926.2826</v>
+        <v>102414.97652</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>58171.82725999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>59100.44743</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>107819.112</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>46026.7479</v>
@@ -2990,28 +3156,31 @@
         <v>111249.99923</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>30691.76152</v>
+        <v>43509.34477</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>17985.62126</v>
+        <v>32905.91149</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>8554.702670000001</v>
+        <v>-1790.19517</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-34984.58117</v>
+        <v>-33348.92532</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>186721.24733</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>99869.09468000001</v>
+        <v>101242.80674</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-34374.78691</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-32719.16005000001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>297956.987</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>191</v>
@@ -3044,28 +3216,31 @@
         <v>311</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>626</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>671</v>
+        <v>704</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>756</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>